--- a/logs_csv/pdfs/model_10_date_2018-06-01_22-30-57_epochs_100/model_10_date_2018-06-01_22-30-57__epochs_100_step_1.xlsx
+++ b/logs_csv/pdfs/model_10_date_2018-06-01_22-30-57_epochs_100/model_10_date_2018-06-01_22-30-57__epochs_100_step_1.xlsx
@@ -857,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2351,6 +2351,14 @@
       <c r="A53" t="s">
         <v>9</v>
       </c>
+      <c r="B53">
+        <f>MAX(B1:B51)</f>
+        <v>0.90999250471367099</v>
+      </c>
+      <c r="D53">
+        <f>MIN(D1:D51)</f>
+        <v>0.27583072319718999</v>
+      </c>
       <c r="F53">
         <f>MAX(F1:F51)</f>
         <v>0.90478160986477396</v>
